--- a/ESPN sports website/IPL/Kolkata Knight Riders/Shivam Mavi.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Shivam Mavi.xlsx
@@ -445,10 +445,10 @@
         <v>Shivam Mavi</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>April 18, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Royals won by 7 runs</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>Shivam Mavi</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>50.00</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 23, 2022</v>
+        <v>April 18, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 8 runs</v>
+        <v>Royals won by 7 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Shivam Mavi</v>
       </c>
       <c r="C4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -530,16 +530,16 @@
         <v>50.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>May 07, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>Titans won by 8 runs</v>
       </c>
     </row>
   </sheetData>
